--- a/RDSML-Day-22 👉 Central Limit Theorem Using R/normal distribution.xlsx
+++ b/RDSML-Day-22 👉 Central Limit Theorem Using R/normal distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08ff2f42a7a47f40/Practice_R/R-for-Data-Science-and-Machine-Learning-with-NBICT-LAB-Batch-8-/RDSML-Day-22 👉 Central Limit Theorem Using R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F572D65C-99AD-4B0E-932A-40DA1872A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F572D65C-99AD-4B0E-932A-40DA1872A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA11B9A6-5AD8-476C-87A1-5A2CFA7F4797}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5266C619-7BEF-40CF-91DA-D87BE13CE5A3}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC72499-8295-4301-A44F-4DD87A6E7B2C}">
-  <dimension ref="A1:A145"/>
+  <dimension ref="A1:A175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,73 +382,73 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A5" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ref="A7:A15" ca="1" si="1">RANDBETWEEN(10,20)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -460,67 +460,67 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f ca="1">RANDBETWEEN(20,30)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" ref="A17:A35" ca="1" si="2">RANDBETWEEN(20,30)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -532,229 +532,229 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f ca="1">RANDBETWEEN(40,50)</f>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" ref="A37:A80" ca="1" si="3">RANDBETWEEN(40,50)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
@@ -766,55 +766,55 @@
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
@@ -826,133 +826,133 @@
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f ca="1">RANDBETWEEN(50,60)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A110" ca="1" si="4">RANDBETWEEN(50,60)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
@@ -982,73 +982,73 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <f ca="1">RANDBETWEEN(60,70)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" ref="A112:A130" ca="1" si="5">RANDBETWEEN(60,70)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -1060,55 +1060,55 @@
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
@@ -1120,91 +1120,91 @@
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" ref="A132:A140" ca="1" si="6">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
@@ -1216,37 +1216,217 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <f ca="1">RANDBETWEEN(80,90)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" ref="A142:A145" ca="1" si="7">RANDBETWEEN(80,90)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f ca="1">RANDBETWEEN(30,40)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" ref="A147:A175" ca="1" si="8">RANDBETWEEN(30,40)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" ca="1" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" ca="1" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" ca="1" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" ca="1" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" ca="1" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" ca="1" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" ca="1" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
